--- a/result_out.xlsx
+++ b/result_out.xlsx
@@ -433,11 +433,506 @@
         </is>
       </c>
       <c r="C1" t="n">
-        <v>49916</v>
+        <v>49816</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>unable to read register</t>
+          <t>0: 1542</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>1: 1025</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2: 0</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>3: 0</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>4: 1543</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>5: 1025</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>6: 0</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>7: 0</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>8: 1544</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>9: 1025</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>10: 0</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>11: 0</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>12: 1545</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>13: 1025</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>14: 0</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>15: 0</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>16: 1546</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>17: 1025</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>18: 0</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>19: 0</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>20: 1547</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>21: 1025</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>22: 0</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>23: 0</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>24: 2048</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>25: 1025</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>26: 0</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>27: 0</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>28: 2049</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>29: 1025</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>30: 0</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>31: 0</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>32: 2050</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>33: 1025</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>34: 0</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>35: 0</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>36: 2051</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>37: 1025</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>38: 0</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>39: 0</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>40: 48128</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>41: 1027</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>42: 0</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>43: 0</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>44: 48130</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>45: 1027</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>46: 0</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>47: 0</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>48: 48132</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>49: 1027</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>50: 0</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>51: 0</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>52: 48134</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>53: 1027</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>54: 0</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>55: 0</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>56: 48136</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>57: 1027</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>58: 0</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>59: 0</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>60: 48138</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>61: 1027</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>62: 0</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>63: 0</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>64: 48256</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>65: 1027</t>
+        </is>
+      </c>
+      <c r="BR1" t="inlineStr">
+        <is>
+          <t>66: 0</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>67: 0</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>68: 48258</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>69: 1027</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>70: 0</t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>71: 0</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>72: 0</t>
+        </is>
+      </c>
+      <c r="BY1" t="inlineStr">
+        <is>
+          <t>73: 13</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>74: 0</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>75: 0</t>
+        </is>
+      </c>
+      <c r="CB1" t="inlineStr">
+        <is>
+          <t>76: 0</t>
+        </is>
+      </c>
+      <c r="CC1" t="inlineStr">
+        <is>
+          <t>77: 13</t>
+        </is>
+      </c>
+      <c r="CD1" t="inlineStr">
+        <is>
+          <t>78: 0</t>
+        </is>
+      </c>
+      <c r="CE1" t="inlineStr">
+        <is>
+          <t>79: 0</t>
+        </is>
+      </c>
+      <c r="CF1" t="inlineStr">
+        <is>
+          <t>80: 0</t>
+        </is>
+      </c>
+      <c r="CG1" t="inlineStr">
+        <is>
+          <t>81: 13</t>
+        </is>
+      </c>
+      <c r="CH1" t="inlineStr">
+        <is>
+          <t>82: 0</t>
+        </is>
+      </c>
+      <c r="CI1" t="inlineStr">
+        <is>
+          <t>83: 0</t>
+        </is>
+      </c>
+      <c r="CJ1" t="inlineStr">
+        <is>
+          <t>84: 0</t>
+        </is>
+      </c>
+      <c r="CK1" t="inlineStr">
+        <is>
+          <t>85: 13</t>
+        </is>
+      </c>
+      <c r="CL1" t="inlineStr">
+        <is>
+          <t>86: 0</t>
+        </is>
+      </c>
+      <c r="CM1" t="inlineStr">
+        <is>
+          <t>87: 0</t>
+        </is>
+      </c>
+      <c r="CN1" t="inlineStr">
+        <is>
+          <t>88: 0</t>
+        </is>
+      </c>
+      <c r="CO1" t="inlineStr">
+        <is>
+          <t>89: 13</t>
+        </is>
+      </c>
+      <c r="CP1" t="inlineStr">
+        <is>
+          <t>90: 0</t>
+        </is>
+      </c>
+      <c r="CQ1" t="inlineStr">
+        <is>
+          <t>91: 0</t>
+        </is>
+      </c>
+      <c r="CR1" t="inlineStr">
+        <is>
+          <t>92: 0</t>
+        </is>
+      </c>
+      <c r="CS1" t="inlineStr">
+        <is>
+          <t>93: 13</t>
+        </is>
+      </c>
+      <c r="CT1" t="inlineStr">
+        <is>
+          <t>94: 0</t>
+        </is>
+      </c>
+      <c r="CU1" t="inlineStr">
+        <is>
+          <t>95: 0</t>
+        </is>
+      </c>
+      <c r="CV1" t="inlineStr">
+        <is>
+          <t>96: 0</t>
+        </is>
+      </c>
+      <c r="CW1" t="inlineStr">
+        <is>
+          <t>97: 13</t>
+        </is>
+      </c>
+      <c r="CX1" t="inlineStr">
+        <is>
+          <t>98: 0</t>
+        </is>
+      </c>
+      <c r="CY1" t="inlineStr">
+        <is>
+          <t>99: 0</t>
         </is>
       </c>
     </row>
@@ -453,11 +948,506 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>49816</v>
+        <v>49716</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>unable to read register</t>
+          <t>0: 4352</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1: 1037</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2: 50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3: 0</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4: 4353</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>5: 1037</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>6: 50</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>7: 0</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>8: 4354</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>9: 1037</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>10: 50</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>11: 0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>12: 4382</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>13: 1037</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>14: 50</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>15: 0</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>16: 4383</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>17: 1037</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>18: 50</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>19: 0</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>20: 4384</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>21: 1037</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>22: 50</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>23: 0</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>24: 5378</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>25: 1037</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>26: 1</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>27: 0</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>28: 4355</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>29: 1037</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>30: 100</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>31: 0</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>32: 4356</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>33: 1037</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>34: 100</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>35: 0</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>36: 4357</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>37: 1037</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>38: 100</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>39: 0</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>40: 4358</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>41: 1037</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>42: 1</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>43: 0</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>44: 4359</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>45: 1037</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>46: 1</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>47: 0</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>48: 4360</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>49: 1037</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>50: 1</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>51: 0</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>52: 4361</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>53: 1037</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>54: 1</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>55: 0</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>56: 4362</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>57: 1037</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>58: 1</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>59: 0</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>60: 4363</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>61: 1037</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>62: 1</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>63: 0</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>64: 5120</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>65: 1037</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>66: 1</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>67: 0</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>68: 5121</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>69: 1037</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>70: 1</t>
+        </is>
+      </c>
+      <c r="BW2" t="inlineStr">
+        <is>
+          <t>71: 0</t>
+        </is>
+      </c>
+      <c r="BX2" t="inlineStr">
+        <is>
+          <t>72: 5123</t>
+        </is>
+      </c>
+      <c r="BY2" t="inlineStr">
+        <is>
+          <t>73: 1037</t>
+        </is>
+      </c>
+      <c r="BZ2" t="inlineStr">
+        <is>
+          <t>74: 1</t>
+        </is>
+      </c>
+      <c r="CA2" t="inlineStr">
+        <is>
+          <t>75: 0</t>
+        </is>
+      </c>
+      <c r="CB2" t="inlineStr">
+        <is>
+          <t>76: 1536</t>
+        </is>
+      </c>
+      <c r="CC2" t="inlineStr">
+        <is>
+          <t>77: 1025</t>
+        </is>
+      </c>
+      <c r="CD2" t="inlineStr">
+        <is>
+          <t>78: 0</t>
+        </is>
+      </c>
+      <c r="CE2" t="inlineStr">
+        <is>
+          <t>79: 0</t>
+        </is>
+      </c>
+      <c r="CF2" t="inlineStr">
+        <is>
+          <t>80: 1537</t>
+        </is>
+      </c>
+      <c r="CG2" t="inlineStr">
+        <is>
+          <t>81: 1025</t>
+        </is>
+      </c>
+      <c r="CH2" t="inlineStr">
+        <is>
+          <t>82: 0</t>
+        </is>
+      </c>
+      <c r="CI2" t="inlineStr">
+        <is>
+          <t>83: 0</t>
+        </is>
+      </c>
+      <c r="CJ2" t="inlineStr">
+        <is>
+          <t>84: 1538</t>
+        </is>
+      </c>
+      <c r="CK2" t="inlineStr">
+        <is>
+          <t>85: 1025</t>
+        </is>
+      </c>
+      <c r="CL2" t="inlineStr">
+        <is>
+          <t>86: 0</t>
+        </is>
+      </c>
+      <c r="CM2" t="inlineStr">
+        <is>
+          <t>87: 0</t>
+        </is>
+      </c>
+      <c r="CN2" t="inlineStr">
+        <is>
+          <t>88: 1539</t>
+        </is>
+      </c>
+      <c r="CO2" t="inlineStr">
+        <is>
+          <t>89: 1025</t>
+        </is>
+      </c>
+      <c r="CP2" t="inlineStr">
+        <is>
+          <t>90: 0</t>
+        </is>
+      </c>
+      <c r="CQ2" t="inlineStr">
+        <is>
+          <t>91: 0</t>
+        </is>
+      </c>
+      <c r="CR2" t="inlineStr">
+        <is>
+          <t>92: 1540</t>
+        </is>
+      </c>
+      <c r="CS2" t="inlineStr">
+        <is>
+          <t>93: 1025</t>
+        </is>
+      </c>
+      <c r="CT2" t="inlineStr">
+        <is>
+          <t>94: 0</t>
+        </is>
+      </c>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>95: 0</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>96: 1541</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>97: 1025</t>
+        </is>
+      </c>
+      <c r="CX2" t="inlineStr">
+        <is>
+          <t>98: 0</t>
+        </is>
+      </c>
+      <c r="CY2" t="inlineStr">
+        <is>
+          <t>99: 0</t>
         </is>
       </c>
     </row>
@@ -473,11 +1463,486 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>49460</v>
+        <v>49524</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>unable to read register</t>
+          <t>0: 3085</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1: 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2: 19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3: 3073</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>4: 101</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>5: 16</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>6: 3075</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>7: 201</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>8: 8</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>9: 0</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>10: 0</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>11: 0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>12: 0</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>13: 0</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>14: 0</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>15: 0</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>16: 0</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>17: 0</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>18: 0</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>19: 0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>20: 0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>21: 0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>22: 0</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>23: 0</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>24: 0</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>25: 0</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>26: 0</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>27: 0</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>28: 0</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>29: 0</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>30: 0</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>31: 0</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>32: 0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>33: 0</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>34: 0</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>35: 0</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>36: 0</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>37: 0</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>38: 0</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>39: 0</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>40: 0</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>41: 0</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>42: 0</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>43: 0</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>44: 0</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>45: 0</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>46: 0</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>47: 0</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>48: 0</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>49: 0</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>50: 0</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>51: 0</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>52: 0</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>53: 0</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>54: 0</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>55: 0</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>56: 0</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>57: 0</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>58: 0</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>59: 0</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>60: 0</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>61: 0</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>62: 0</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>63: 0</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>64: 0</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>65: 0</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>66: 0</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>67: 0</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>68: 0</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>69: 0</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>70: 0</t>
+        </is>
+      </c>
+      <c r="BW3" t="inlineStr">
+        <is>
+          <t>71: 0</t>
+        </is>
+      </c>
+      <c r="BX3" t="inlineStr">
+        <is>
+          <t>72: 0</t>
+        </is>
+      </c>
+      <c r="BY3" t="inlineStr">
+        <is>
+          <t>73: 0</t>
+        </is>
+      </c>
+      <c r="BZ3" t="inlineStr">
+        <is>
+          <t>74: 0</t>
+        </is>
+      </c>
+      <c r="CA3" t="inlineStr">
+        <is>
+          <t>75: 0</t>
+        </is>
+      </c>
+      <c r="CB3" t="inlineStr">
+        <is>
+          <t>76: 0</t>
+        </is>
+      </c>
+      <c r="CC3" t="inlineStr">
+        <is>
+          <t>77: 0</t>
+        </is>
+      </c>
+      <c r="CD3" t="inlineStr">
+        <is>
+          <t>78: 0</t>
+        </is>
+      </c>
+      <c r="CE3" t="inlineStr">
+        <is>
+          <t>79: 0</t>
+        </is>
+      </c>
+      <c r="CF3" t="inlineStr">
+        <is>
+          <t>80: 0</t>
+        </is>
+      </c>
+      <c r="CG3" t="inlineStr">
+        <is>
+          <t>81: 0</t>
+        </is>
+      </c>
+      <c r="CH3" t="inlineStr">
+        <is>
+          <t>82: 0</t>
+        </is>
+      </c>
+      <c r="CI3" t="inlineStr">
+        <is>
+          <t>83: 0</t>
+        </is>
+      </c>
+      <c r="CJ3" t="inlineStr">
+        <is>
+          <t>84: 0</t>
+        </is>
+      </c>
+      <c r="CK3" t="inlineStr">
+        <is>
+          <t>85: 0</t>
+        </is>
+      </c>
+      <c r="CL3" t="inlineStr">
+        <is>
+          <t>86: 0</t>
+        </is>
+      </c>
+      <c r="CM3" t="inlineStr">
+        <is>
+          <t>87: 0</t>
+        </is>
+      </c>
+      <c r="CN3" t="inlineStr">
+        <is>
+          <t>88: 0</t>
+        </is>
+      </c>
+      <c r="CO3" t="inlineStr">
+        <is>
+          <t>89: 0</t>
+        </is>
+      </c>
+      <c r="CP3" t="inlineStr">
+        <is>
+          <t>90: 0</t>
+        </is>
+      </c>
+      <c r="CQ3" t="inlineStr">
+        <is>
+          <t>91: 0</t>
+        </is>
+      </c>
+      <c r="CR3" t="inlineStr">
+        <is>
+          <t>92: 0</t>
+        </is>
+      </c>
+      <c r="CS3" t="inlineStr">
+        <is>
+          <t>93: 0</t>
+        </is>
+      </c>
+      <c r="CT3" t="inlineStr">
+        <is>
+          <t>94: 0</t>
+        </is>
+      </c>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>95: 0</t>
         </is>
       </c>
     </row>
@@ -493,21 +1958,21 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>49716</v>
+        <v>49916</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0: 4352</t>
+          <t>0: 0</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1: 1037</t>
+          <t>1: 13</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2: 50</t>
+          <t>2: 0</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -517,17 +1982,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>4: 4353</t>
+          <t>4: 0</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>5: 1037</t>
+          <t>5: 13</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>6: 50</t>
+          <t>6: 0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -537,17 +2002,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8: 4354</t>
+          <t>8: 0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>9: 1037</t>
+          <t>9: 13</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>10: 50</t>
+          <t>10: 0</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -557,17 +2022,17 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>12: 4382</t>
+          <t>12: 0</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>13: 1037</t>
+          <t>13: 13</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>14: 50</t>
+          <t>14: 0</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
@@ -577,17 +2042,17 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>16: 4383</t>
+          <t>16: 0</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>17: 1037</t>
+          <t>17: 13</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>18: 50</t>
+          <t>18: 0</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -597,17 +2062,17 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>20: 4384</t>
+          <t>20: 0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>21: 1037</t>
+          <t>21: 13</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>22: 50</t>
+          <t>22: 0</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -617,17 +2082,17 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>24: 5378</t>
+          <t>24: 0</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>25: 1037</t>
+          <t>25: 13</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>26: 1</t>
+          <t>26: 0</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
@@ -637,17 +2102,17 @@
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>28: 4355</t>
+          <t>28: 0</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>29: 1037</t>
+          <t>29: 13</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>30: 100</t>
+          <t>30: 0</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
@@ -657,17 +2122,17 @@
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>32: 4356</t>
+          <t>32: 0</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>33: 1037</t>
+          <t>33: 13</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>34: 100</t>
+          <t>34: 0</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
@@ -677,17 +2142,17 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>36: 4357</t>
+          <t>36: 0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>37: 1037</t>
+          <t>37: 13</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>38: 100</t>
+          <t>38: 0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
@@ -697,17 +2162,17 @@
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>40: 4358</t>
+          <t>40: 0</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>41: 1037</t>
+          <t>41: 13</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
         <is>
-          <t>42: 1</t>
+          <t>42: 0</t>
         </is>
       </c>
       <c r="AU4" t="inlineStr">
@@ -717,17 +2182,17 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>44: 4359</t>
+          <t>44: 0</t>
         </is>
       </c>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>45: 1037</t>
+          <t>45: 13</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>46: 1</t>
+          <t>46: 0</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
@@ -737,17 +2202,17 @@
       </c>
       <c r="AZ4" t="inlineStr">
         <is>
-          <t>48: 4360</t>
+          <t>48: 0</t>
         </is>
       </c>
       <c r="BA4" t="inlineStr">
         <is>
-          <t>49: 1037</t>
+          <t>49: 13</t>
         </is>
       </c>
       <c r="BB4" t="inlineStr">
         <is>
-          <t>50: 1</t>
+          <t>50: 0</t>
         </is>
       </c>
       <c r="BC4" t="inlineStr">
@@ -757,242 +2222,22 @@
       </c>
       <c r="BD4" t="inlineStr">
         <is>
-          <t>52: 4361</t>
+          <t>52: 0</t>
         </is>
       </c>
       <c r="BE4" t="inlineStr">
         <is>
-          <t>53: 1037</t>
+          <t>53: 13</t>
         </is>
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>54: 1</t>
+          <t>54: 0</t>
         </is>
       </c>
       <c r="BG4" t="inlineStr">
         <is>
           <t>55: 0</t>
-        </is>
-      </c>
-      <c r="BH4" t="inlineStr">
-        <is>
-          <t>56: 4362</t>
-        </is>
-      </c>
-      <c r="BI4" t="inlineStr">
-        <is>
-          <t>57: 1037</t>
-        </is>
-      </c>
-      <c r="BJ4" t="inlineStr">
-        <is>
-          <t>58: 1</t>
-        </is>
-      </c>
-      <c r="BK4" t="inlineStr">
-        <is>
-          <t>59: 0</t>
-        </is>
-      </c>
-      <c r="BL4" t="inlineStr">
-        <is>
-          <t>60: 4363</t>
-        </is>
-      </c>
-      <c r="BM4" t="inlineStr">
-        <is>
-          <t>61: 1037</t>
-        </is>
-      </c>
-      <c r="BN4" t="inlineStr">
-        <is>
-          <t>62: 1</t>
-        </is>
-      </c>
-      <c r="BO4" t="inlineStr">
-        <is>
-          <t>63: 0</t>
-        </is>
-      </c>
-      <c r="BP4" t="inlineStr">
-        <is>
-          <t>64: 5120</t>
-        </is>
-      </c>
-      <c r="BQ4" t="inlineStr">
-        <is>
-          <t>65: 1037</t>
-        </is>
-      </c>
-      <c r="BR4" t="inlineStr">
-        <is>
-          <t>66: 1</t>
-        </is>
-      </c>
-      <c r="BS4" t="inlineStr">
-        <is>
-          <t>67: 0</t>
-        </is>
-      </c>
-      <c r="BT4" t="inlineStr">
-        <is>
-          <t>68: 5121</t>
-        </is>
-      </c>
-      <c r="BU4" t="inlineStr">
-        <is>
-          <t>69: 1037</t>
-        </is>
-      </c>
-      <c r="BV4" t="inlineStr">
-        <is>
-          <t>70: 1</t>
-        </is>
-      </c>
-      <c r="BW4" t="inlineStr">
-        <is>
-          <t>71: 0</t>
-        </is>
-      </c>
-      <c r="BX4" t="inlineStr">
-        <is>
-          <t>72: 5123</t>
-        </is>
-      </c>
-      <c r="BY4" t="inlineStr">
-        <is>
-          <t>73: 1037</t>
-        </is>
-      </c>
-      <c r="BZ4" t="inlineStr">
-        <is>
-          <t>74: 1</t>
-        </is>
-      </c>
-      <c r="CA4" t="inlineStr">
-        <is>
-          <t>75: 0</t>
-        </is>
-      </c>
-      <c r="CB4" t="inlineStr">
-        <is>
-          <t>76: 1536</t>
-        </is>
-      </c>
-      <c r="CC4" t="inlineStr">
-        <is>
-          <t>77: 1025</t>
-        </is>
-      </c>
-      <c r="CD4" t="inlineStr">
-        <is>
-          <t>78: 0</t>
-        </is>
-      </c>
-      <c r="CE4" t="inlineStr">
-        <is>
-          <t>79: 0</t>
-        </is>
-      </c>
-      <c r="CF4" t="inlineStr">
-        <is>
-          <t>80: 1537</t>
-        </is>
-      </c>
-      <c r="CG4" t="inlineStr">
-        <is>
-          <t>81: 1025</t>
-        </is>
-      </c>
-      <c r="CH4" t="inlineStr">
-        <is>
-          <t>82: 0</t>
-        </is>
-      </c>
-      <c r="CI4" t="inlineStr">
-        <is>
-          <t>83: 0</t>
-        </is>
-      </c>
-      <c r="CJ4" t="inlineStr">
-        <is>
-          <t>84: 1538</t>
-        </is>
-      </c>
-      <c r="CK4" t="inlineStr">
-        <is>
-          <t>85: 1025</t>
-        </is>
-      </c>
-      <c r="CL4" t="inlineStr">
-        <is>
-          <t>86: 0</t>
-        </is>
-      </c>
-      <c r="CM4" t="inlineStr">
-        <is>
-          <t>87: 0</t>
-        </is>
-      </c>
-      <c r="CN4" t="inlineStr">
-        <is>
-          <t>88: 1539</t>
-        </is>
-      </c>
-      <c r="CO4" t="inlineStr">
-        <is>
-          <t>89: 1025</t>
-        </is>
-      </c>
-      <c r="CP4" t="inlineStr">
-        <is>
-          <t>90: 0</t>
-        </is>
-      </c>
-      <c r="CQ4" t="inlineStr">
-        <is>
-          <t>91: 0</t>
-        </is>
-      </c>
-      <c r="CR4" t="inlineStr">
-        <is>
-          <t>92: 1540</t>
-        </is>
-      </c>
-      <c r="CS4" t="inlineStr">
-        <is>
-          <t>93: 1025</t>
-        </is>
-      </c>
-      <c r="CT4" t="inlineStr">
-        <is>
-          <t>94: 0</t>
-        </is>
-      </c>
-      <c r="CU4" t="inlineStr">
-        <is>
-          <t>95: 0</t>
-        </is>
-      </c>
-      <c r="CV4" t="inlineStr">
-        <is>
-          <t>96: 1541</t>
-        </is>
-      </c>
-      <c r="CW4" t="inlineStr">
-        <is>
-          <t>97: 1025</t>
-        </is>
-      </c>
-      <c r="CX4" t="inlineStr">
-        <is>
-          <t>98: 0</t>
-        </is>
-      </c>
-      <c r="CY4" t="inlineStr">
-        <is>
-          <t>99: 0</t>
         </is>
       </c>
     </row>
@@ -1008,11 +2253,11 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>49524</v>
+        <v>49460</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0: 3085</t>
+          <t>0: 255</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -1022,37 +2267,37 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2: 19</t>
+          <t>2: 2</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>3: 3073</t>
+          <t>3: 2</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>4: 101</t>
+          <t>4: 3</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>5: 16</t>
+          <t>5: 10</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>6: 3075</t>
+          <t>6: 500</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>7: 201</t>
+          <t>7: 1000</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>8: 8</t>
+          <t>8: 0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
@@ -1072,22 +2317,22 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>12: 0</t>
+          <t>12: 4268</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>13: 0</t>
+          <t>13: 256</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>14: 0</t>
+          <t>14: 4268</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>15: 0</t>
+          <t>15: 512</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1102,7 +2347,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>18: 0</t>
+          <t>18: 12</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1112,62 +2357,62 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>20: 0</t>
+          <t>20: 101</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>21: 0</t>
+          <t>21: 1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>22: 0</t>
+          <t>22: 30</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>23: 0</t>
+          <t>23: 201</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>24: 0</t>
+          <t>24: 3</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>25: 0</t>
+          <t>25: 31</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
         <is>
-          <t>26: 0</t>
+          <t>26: 1</t>
         </is>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
-          <t>27: 0</t>
+          <t>27: 13</t>
         </is>
       </c>
       <c r="AF5" t="inlineStr">
         <is>
-          <t>28: 0</t>
+          <t>28: 36</t>
         </is>
       </c>
       <c r="AG5" t="inlineStr">
         <is>
-          <t>29: 0</t>
+          <t>29: 301</t>
         </is>
       </c>
       <c r="AH5" t="inlineStr">
         <is>
-          <t>30: 0</t>
+          <t>30: 15</t>
         </is>
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>31: 0</t>
+          <t>31: 37</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1183,311 +2428,6 @@
       <c r="AL5" t="inlineStr">
         <is>
           <t>34: 0</t>
-        </is>
-      </c>
-      <c r="AM5" t="inlineStr">
-        <is>
-          <t>35: 0</t>
-        </is>
-      </c>
-      <c r="AN5" t="inlineStr">
-        <is>
-          <t>36: 0</t>
-        </is>
-      </c>
-      <c r="AO5" t="inlineStr">
-        <is>
-          <t>37: 0</t>
-        </is>
-      </c>
-      <c r="AP5" t="inlineStr">
-        <is>
-          <t>38: 0</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>39: 0</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>40: 0</t>
-        </is>
-      </c>
-      <c r="AS5" t="inlineStr">
-        <is>
-          <t>41: 0</t>
-        </is>
-      </c>
-      <c r="AT5" t="inlineStr">
-        <is>
-          <t>42: 0</t>
-        </is>
-      </c>
-      <c r="AU5" t="inlineStr">
-        <is>
-          <t>43: 0</t>
-        </is>
-      </c>
-      <c r="AV5" t="inlineStr">
-        <is>
-          <t>44: 0</t>
-        </is>
-      </c>
-      <c r="AW5" t="inlineStr">
-        <is>
-          <t>45: 0</t>
-        </is>
-      </c>
-      <c r="AX5" t="inlineStr">
-        <is>
-          <t>46: 0</t>
-        </is>
-      </c>
-      <c r="AY5" t="inlineStr">
-        <is>
-          <t>47: 0</t>
-        </is>
-      </c>
-      <c r="AZ5" t="inlineStr">
-        <is>
-          <t>48: 0</t>
-        </is>
-      </c>
-      <c r="BA5" t="inlineStr">
-        <is>
-          <t>49: 0</t>
-        </is>
-      </c>
-      <c r="BB5" t="inlineStr">
-        <is>
-          <t>50: 0</t>
-        </is>
-      </c>
-      <c r="BC5" t="inlineStr">
-        <is>
-          <t>51: 0</t>
-        </is>
-      </c>
-      <c r="BD5" t="inlineStr">
-        <is>
-          <t>52: 0</t>
-        </is>
-      </c>
-      <c r="BE5" t="inlineStr">
-        <is>
-          <t>53: 0</t>
-        </is>
-      </c>
-      <c r="BF5" t="inlineStr">
-        <is>
-          <t>54: 0</t>
-        </is>
-      </c>
-      <c r="BG5" t="inlineStr">
-        <is>
-          <t>55: 0</t>
-        </is>
-      </c>
-      <c r="BH5" t="inlineStr">
-        <is>
-          <t>56: 0</t>
-        </is>
-      </c>
-      <c r="BI5" t="inlineStr">
-        <is>
-          <t>57: 0</t>
-        </is>
-      </c>
-      <c r="BJ5" t="inlineStr">
-        <is>
-          <t>58: 0</t>
-        </is>
-      </c>
-      <c r="BK5" t="inlineStr">
-        <is>
-          <t>59: 0</t>
-        </is>
-      </c>
-      <c r="BL5" t="inlineStr">
-        <is>
-          <t>60: 0</t>
-        </is>
-      </c>
-      <c r="BM5" t="inlineStr">
-        <is>
-          <t>61: 0</t>
-        </is>
-      </c>
-      <c r="BN5" t="inlineStr">
-        <is>
-          <t>62: 0</t>
-        </is>
-      </c>
-      <c r="BO5" t="inlineStr">
-        <is>
-          <t>63: 0</t>
-        </is>
-      </c>
-      <c r="BP5" t="inlineStr">
-        <is>
-          <t>64: 0</t>
-        </is>
-      </c>
-      <c r="BQ5" t="inlineStr">
-        <is>
-          <t>65: 0</t>
-        </is>
-      </c>
-      <c r="BR5" t="inlineStr">
-        <is>
-          <t>66: 0</t>
-        </is>
-      </c>
-      <c r="BS5" t="inlineStr">
-        <is>
-          <t>67: 0</t>
-        </is>
-      </c>
-      <c r="BT5" t="inlineStr">
-        <is>
-          <t>68: 0</t>
-        </is>
-      </c>
-      <c r="BU5" t="inlineStr">
-        <is>
-          <t>69: 0</t>
-        </is>
-      </c>
-      <c r="BV5" t="inlineStr">
-        <is>
-          <t>70: 0</t>
-        </is>
-      </c>
-      <c r="BW5" t="inlineStr">
-        <is>
-          <t>71: 0</t>
-        </is>
-      </c>
-      <c r="BX5" t="inlineStr">
-        <is>
-          <t>72: 0</t>
-        </is>
-      </c>
-      <c r="BY5" t="inlineStr">
-        <is>
-          <t>73: 0</t>
-        </is>
-      </c>
-      <c r="BZ5" t="inlineStr">
-        <is>
-          <t>74: 0</t>
-        </is>
-      </c>
-      <c r="CA5" t="inlineStr">
-        <is>
-          <t>75: 0</t>
-        </is>
-      </c>
-      <c r="CB5" t="inlineStr">
-        <is>
-          <t>76: 0</t>
-        </is>
-      </c>
-      <c r="CC5" t="inlineStr">
-        <is>
-          <t>77: 0</t>
-        </is>
-      </c>
-      <c r="CD5" t="inlineStr">
-        <is>
-          <t>78: 0</t>
-        </is>
-      </c>
-      <c r="CE5" t="inlineStr">
-        <is>
-          <t>79: 0</t>
-        </is>
-      </c>
-      <c r="CF5" t="inlineStr">
-        <is>
-          <t>80: 0</t>
-        </is>
-      </c>
-      <c r="CG5" t="inlineStr">
-        <is>
-          <t>81: 0</t>
-        </is>
-      </c>
-      <c r="CH5" t="inlineStr">
-        <is>
-          <t>82: 0</t>
-        </is>
-      </c>
-      <c r="CI5" t="inlineStr">
-        <is>
-          <t>83: 0</t>
-        </is>
-      </c>
-      <c r="CJ5" t="inlineStr">
-        <is>
-          <t>84: 0</t>
-        </is>
-      </c>
-      <c r="CK5" t="inlineStr">
-        <is>
-          <t>85: 0</t>
-        </is>
-      </c>
-      <c r="CL5" t="inlineStr">
-        <is>
-          <t>86: 0</t>
-        </is>
-      </c>
-      <c r="CM5" t="inlineStr">
-        <is>
-          <t>87: 0</t>
-        </is>
-      </c>
-      <c r="CN5" t="inlineStr">
-        <is>
-          <t>88: 0</t>
-        </is>
-      </c>
-      <c r="CO5" t="inlineStr">
-        <is>
-          <t>89: 0</t>
-        </is>
-      </c>
-      <c r="CP5" t="inlineStr">
-        <is>
-          <t>90: 0</t>
-        </is>
-      </c>
-      <c r="CQ5" t="inlineStr">
-        <is>
-          <t>91: 0</t>
-        </is>
-      </c>
-      <c r="CR5" t="inlineStr">
-        <is>
-          <t>92: 0</t>
-        </is>
-      </c>
-      <c r="CS5" t="inlineStr">
-        <is>
-          <t>93: 0</t>
-        </is>
-      </c>
-      <c r="CT5" t="inlineStr">
-        <is>
-          <t>94: 0</t>
-        </is>
-      </c>
-      <c r="CU5" t="inlineStr">
-        <is>
-          <t>95: 0</t>
         </is>
       </c>
     </row>
